--- a/biology/Médecine/Costanzo_Varolio/Costanzo_Varolio.xlsx
+++ b/biology/Médecine/Costanzo_Varolio/Costanzo_Varolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Constanzo Varolio, latinisé en Constantius Varolius (en français : Constant Varole) est un anatomiste italien de la Renaissance né en 1543[1] à Bologne et mort à Rome en 1575[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constanzo Varolio, latinisé en Constantius Varolius (en français : Constant Varole) est un anatomiste italien de la Renaissance né en 1543 à Bologne et mort à Rome en 1575.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Costanzo Varolio exerça à Bologne, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui[2]. Il travailla en particulier sur le cerveau, qu'il fut le premier à couper à sa base[3]. Il fournit une description détaillée du système nerveux central et en particulier de la structure connue maintenant sous le nom de pont de Varole[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Costanzo Varolio exerça à Bologne, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui. Il travailla en particulier sur le cerveau, qu'il fut le premier à couper à sa base. Il fournit une description détaillée du système nerveux central et en particulier de la structure connue maintenant sous le nom de pont de Varole.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>De Nervis Opticis nonnullisque aliis praeter communem opinionem in Humano capite observatis. Ad Hieronymum Mercurialem, Patavii apud Paul et Anton. Meiettos fratres, 1573.
 Anatomiae sive de resolutione corporis humani ad Caesarem Mediovillanum libri iv, Eiusdem Varolii et Hieron. Mercurialis De nervis Opticis, etc. epistolae, Francofurti, apud Joh. Wechelum et Petr. Fischerum consortes, 1591.</t>
